--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2461919\Downloads\Cognizant-New-Identify-Bikes-Project-main\ZigwheelsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D815B2CF-CD23-4D4F-B49D-1F4555DC0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E30B12-80E2-408A-9DA7-1580F2BD665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="124">
+  <si>
+    <t>Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 10.50 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 8.75 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.1</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V 2 Airbag</t>
+  </si>
+  <si>
+    <t>Honda City VX MT</t>
+  </si>
+  <si>
+    <t>Rs. 11.23 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 12.09 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V</t>
+  </si>
+  <si>
+    <t>Rs. 10.97 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.39 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.04 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i DTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.90 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 1.5 V MT Exclusive</t>
+  </si>
+  <si>
+    <t>Rs. 4.55 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.50 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 13.95 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City SV MT</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Rs. 4.95 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 7.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.93 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.53 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI Plus BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.45 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 5.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.60 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V CVT</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2.8 2WD MT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 27.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 16.75 Lakh</t>
+  </si>
   <si>
     <t>Maruti Swift VXI</t>
   </si>
   <si>
-    <t>Rs. 4.95 Lakh</t>
+    <t>Rs. 4.40 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.56 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift ZXI</t>
@@ -34,28 +172,79 @@
     <t>Rs. 5.06 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift ZXI Plus BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 7.45 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.40 Lakh</t>
-  </si>
-  <si>
     <t>Maruti Swift VXI AMT</t>
   </si>
   <si>
+    <t>Rs. 3.25 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI AMT</t>
+  </si>
+  <si>
+    <t>Rs. 5.75 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 11.50 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.14 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.20 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.70 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VXI AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz Option</t>
+  </si>
+  <si>
+    <t>Rs. 2.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.99 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 4.02 Lakh</t>
   </si>
   <si>
+    <t>Maruti Swift RS VDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.75 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 4.52 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift VXI Optional</t>
   </si>
   <si>
-    <t>Rs. 4.75 Lakh</t>
+    <t>Rs. 4.24 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift VDI</t>
@@ -64,256 +253,115 @@
     <t>Rs. 3.65 Lakh</t>
   </si>
   <si>
+    <t>Rs. 3.45 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.49 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 5.10 Lakh</t>
   </si>
   <si>
-    <t>Rs. 6.20 Lakh</t>
+    <t>Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.15 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.63 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZDI BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 4.37 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.70 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI Deca</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.72 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 AT W10 FWD</t>
+  </si>
+  <si>
+    <t>Rs. 9.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.95 Lakh</t>
   </si>
   <si>
     <t>Rs. 3.49 Lakh</t>
   </si>
   <si>
-    <t>Toyota Fortuner 2.8 2WD MT BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 27.00 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 7.30 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.93 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Sportz 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 3.04 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i DTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.90 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna 1.1</t>
-  </si>
-  <si>
-    <t>Rs. 3.56 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.14 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City SV MT</t>
-  </si>
-  <si>
-    <t>Honda City V CVT</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 5.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 4.24 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 1.5 V MT Exclusive</t>
-  </si>
-  <si>
-    <t>Rs. 3.45 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.49 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 13.95 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.55 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.15 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 8.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 9.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.00 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.53 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC ZX</t>
-  </si>
-  <si>
-    <t>Rs. 8.60 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 16.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.95 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.50 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.15 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.70 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.25 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.65 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Sportz Option</t>
-  </si>
-  <si>
-    <t>Rs. 2.80 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI AMT</t>
-  </si>
-  <si>
-    <t>Rs. 5.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZDI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 3.72 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 7.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Ciaz 1.3 Alpha</t>
-  </si>
-  <si>
-    <t>Rs. 5.93 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Creta 1.6 E Plus</t>
-  </si>
-  <si>
-    <t>Rs. 5.64 Lakh</t>
-  </si>
-  <si>
-    <t>BMW X1 sDrive18i M Sport</t>
-  </si>
-  <si>
-    <t>Rs. 42.00 Lakh</t>
-  </si>
-  <si>
-    <t>Renault KWID 1.0 RXT</t>
-  </si>
-  <si>
-    <t>Rs. 3.30 Lakh</t>
-  </si>
-  <si>
-    <t>Renault Triber RXZ</t>
-  </si>
-  <si>
-    <t>Honda Amaze SX i VTEC</t>
-  </si>
-  <si>
-    <t>Rs. 4.00 Lakh</t>
-  </si>
-  <si>
-    <t>Audi A6 35 TDI Technology</t>
-  </si>
-  <si>
-    <t>Rs. 19.50 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 W8 FWD</t>
-  </si>
-  <si>
-    <t>Rs. 7.75 Lakh</t>
-  </si>
-  <si>
-    <t>Audi A4 2.0 TDI Multitronic</t>
-  </si>
-  <si>
-    <t>Rs. 6.00 Lakh</t>
-  </si>
-  <si>
-    <t>MG Gloster Savvy 6-Str</t>
-  </si>
-  <si>
-    <t>Rs. 30.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Corolla Altis 1.8 G CVT</t>
-  </si>
-  <si>
-    <t>Rs. 7.50 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VXI AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 5.95 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.99 Lakh</t>
+    <t>Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Rs. 2.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.59 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXi</t>
+  </si>
+  <si>
+    <t>Rs. 7.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 2.62 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift LXI Optional-O</t>
@@ -325,31 +373,13 @@
     <t>Rs. 4.47 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift VDI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 4.37 Lakh</t>
-  </si>
-  <si>
     <t>Rs. 3.47 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift RS VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift AMT VXI</t>
-  </si>
-  <si>
-    <t>Rs. 5.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.60 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City VX MT</t>
-  </si>
-  <si>
-    <t>Rs. 5.63 Lakh</t>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Asta AT</t>
   </si>
   <si>
     <t>Hyundai i10 Sportz</t>
@@ -358,10 +388,10 @@
     <t>Rs. 2.65 Lakh</t>
   </si>
   <si>
-    <t>Hyundai i10 Magna 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 2.62 Lakh</t>
+    <t>Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.87 Lakh</t>
   </si>
 </sst>
 </file>
@@ -734,292 +764,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B61"/>
+  <dimension ref="A2:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -1027,31 +1057,31 @@
         <v>0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
@@ -1059,167 +1089,359 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="193">
   <si>
     <t>Maruti Swift VXI</t>
   </si>
@@ -362,6 +362,243 @@
   </si>
   <si>
     <t>Rs. 2.62 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.50 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V 2 Airbag</t>
+  </si>
+  <si>
+    <t>Rs. 11.23 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 12.09 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V</t>
+  </si>
+  <si>
+    <t>Rs. 10.97 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.39 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 11.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.70 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI Deca</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Popular Models</t>
+  </si>
+  <si>
+    <t>Used Cars in Top Cities</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC S</t>
+  </si>
+  <si>
+    <t>Rs. 4.85 Lakh</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Details N/A</t>
+  </si>
+  <si>
+    <t>Rs. 5.66 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.93 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.93 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI Option</t>
+  </si>
+  <si>
+    <t>Rs. 4.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.06 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.62 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.77 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.14 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.93 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios Magna</t>
+  </si>
+  <si>
+    <t>Rs. 5.83 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:06:31</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz C-Class C 220 CDI Style</t>
+  </si>
+  <si>
+    <t>Rs. 14.14 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Jazz 1.2 V i VTEC</t>
+  </si>
+  <si>
+    <t>Rs. 4.21 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Crysta 2.8 ZX AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 19.00 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i20 Sportz Plus Dual Tone BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 5.78 Lakh</t>
+  </si>
+  <si>
+    <t>Kia Sonet HTX Diesel iMT</t>
+  </si>
+  <si>
+    <t>Rs. 10.22 Lakh</t>
+  </si>
+  <si>
+    <t>56 Used Hyundai i20</t>
+  </si>
+  <si>
+    <t>Rs. 69.50 Lakh</t>
+  </si>
+  <si>
+    <t>53 Used Honda City</t>
+  </si>
+  <si>
+    <t>Rs. 4.15 Lakh</t>
+  </si>
+  <si>
+    <t>45 Used Honda Amaze</t>
+  </si>
+  <si>
+    <t>43 Used Maruti Swift</t>
+  </si>
+  <si>
+    <t>Rs. 3.95 Lakh</t>
+  </si>
+  <si>
+    <t>40 Used Hyundai Creta</t>
+  </si>
+  <si>
+    <t>39 Used Hyundai Grand i10</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>33 Used Maruti Celerio</t>
+  </si>
+  <si>
+    <t>33 Used Maruti Wagon R</t>
+  </si>
+  <si>
+    <t>33 Used Kia Seltos</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz GLE 300d 4Matic</t>
+  </si>
+  <si>
+    <t>Rs. 9.00 Lakh</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo 1.2 MPI Highline</t>
+  </si>
+  <si>
+    <t>Tata Tiago 1.2 Revotron XZA</t>
+  </si>
+  <si>
+    <t>Hyundai Xcent 1.2 Kappa S AT</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Volkswagen Ameo 1.5 TDI Highline</t>
+  </si>
+  <si>
+    <t>Rs. 7.21 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 AT W10 FWD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 2.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 16.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.75 Lakh</t>
   </si>
 </sst>
 </file>
@@ -734,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B61"/>
+  <dimension ref="A2:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -744,482 +981,794 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>154</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>77</v>
+        <v>157</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>159</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>81</v>
+        <v>161</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>163</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>165</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>167</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>169</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>141</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>84</v>
+        <v>172</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>92</v>
+        <v>139</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>94</v>
+        <v>175</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>96</v>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>103</v>
+        <v>138</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>11</v>
+        <v>94</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>106</v>
+        <v>184</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>109</v>
+        <v>186</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>111</v>
+        <v>187</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>40</v>
+        <v>142</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>43</v>
+        <v>109</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>44</v>
+        <v>119</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>46</v>
       </c>
+      <c r="C41" t="s" s="0">
+        <v>155</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>50</v>
+        <v>143</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>52</v>
+        <v>126</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>144</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>59</v>
+        <v>120</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>60</v>
+        <v>145</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>61</v>
+        <v>148</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>63</v>
+        <v>99</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>65</v>
+        <v>149</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>67</v>
+        <v>150</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>14</v>
+        <v>151</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>71</v>
+        <v>152</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="238">
   <si>
     <t>Maruti Swift VXI</t>
   </si>
@@ -599,6 +599,141 @@
   </si>
   <si>
     <t>Rs. 9.75 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:07:30</t>
+  </si>
+  <si>
+    <t>Rs. 11.85 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 1.5 V AT</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 3.0 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 10.00 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:10:03</t>
+  </si>
+  <si>
+    <t>Rs. 11.21 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:11:35</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:22:03</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Asta AT</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Maruti Swift VVT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS III</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXi Plus</t>
+  </si>
+  <si>
+    <t>Honda City i DTec SV</t>
+  </si>
+  <si>
+    <t>Rs. 6.75 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2.8 4WD AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 28.90 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Rs. 1.95 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 AT W10 1.99 mHawk</t>
+  </si>
+  <si>
+    <t>Rs. 10.84 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:00:18</t>
+  </si>
+  <si>
+    <t>Honda City VX Apex Edition CVT</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:02:33</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:07:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:09:00</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:11:58</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:13:22</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:14:48</t>
   </si>
 </sst>
 </file>
@@ -981,332 +1116,332 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
@@ -1314,461 +1449,461 @@
         <v>2</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="247">
   <si>
     <t>Maruti Swift VXI</t>
   </si>
@@ -734,6 +734,33 @@
   </si>
   <si>
     <t>2026-02-16 14:14:48</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:33:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:32:41</t>
+  </si>
+  <si>
+    <t>Rs. 8.27 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.09 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.34 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 15:18:43</t>
+  </si>
+  <si>
+    <t>Rs. 5.85 Lakh</t>
   </si>
 </sst>
 </file>
@@ -1116,420 +1143,420 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
@@ -1537,109 +1564,109 @@
         <v>0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50">

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -410,6 +410,57 @@
   </si>
   <si>
     <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 16:46:06</t>
+  </si>
+  <si>
+    <t>Rs. 9.25 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 10.55 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W11 FWD Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 13.65 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.62 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 16:50:50</t>
+  </si>
+  <si>
+    <t>2026-02-19 16:58:31</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC VX</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 3.0 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 10.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
   </si>
 </sst>
 </file>
@@ -791,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C85"/>
@@ -814,288 +865,288 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
@@ -1106,172 +1157,172 @@
         <v>8</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
@@ -1282,62 +1333,194 @@
         <v>65</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>118</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Alcazar Prestige</t>
+  </si>
+  <si>
+    <t>Hyundai Tucson 2.0 Dual VTVT 2WD AT GLS</t>
+  </si>
+  <si>
+    <t>Tata Tiago 1.2 Revotron XTA</t>
+  </si>
+  <si>
+    <t>BMW 5 Series 530d M Sport</t>
+  </si>
+  <si>
+    <t>Skoda Rapid 1.5 TDI Elegance</t>
+  </si>
+  <si>
+    <t>Maruti 800 AC BSIII</t>
   </si>
 </sst>
 </file>
@@ -865,10 +883,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>139</v>
@@ -876,10 +894,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>139</v>
@@ -887,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>139</v>
@@ -898,10 +916,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>139</v>
@@ -909,10 +927,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>139</v>
@@ -920,10 +938,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>139</v>
@@ -931,10 +949,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>139</v>
@@ -942,10 +960,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>139</v>
@@ -953,10 +971,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>139</v>
@@ -964,10 +982,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>139</v>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -479,6 +479,30 @@
   </si>
   <si>
     <t>Maruti 800 AC BSIII</t>
+  </si>
+  <si>
+    <t>2026-02-19 17:59:54</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:10:21</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:13:31</t>
+  </si>
+  <si>
+    <t>Rs. 9.97 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:16:22</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:19:56</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:21:53</t>
   </si>
 </sst>
 </file>
@@ -883,365 +907,365 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1249,153 +1273,153 @@
         <v>44</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
@@ -1406,139 +1430,139 @@
         <v>59</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -503,6 +503,30 @@
   </si>
   <si>
     <t>2026-02-19 18:21:53</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:25:49</t>
+  </si>
+  <si>
+    <t>2026-02-19 18:28:11</t>
+  </si>
+  <si>
+    <t>2026-02-20 10:05:14</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC VX Option</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-20 10:51:02</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W8 FWD</t>
+  </si>
+  <si>
+    <t>Rs. 8.25 Lakh</t>
   </si>
 </sst>
 </file>
@@ -910,285 +934,285 @@
         <v>21</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1199,7 +1223,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
@@ -1210,139 +1234,139 @@
         <v>101</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42">
@@ -1353,216 +1377,216 @@
         <v>32</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2461919\Downloads\Cognizant-New-Identify-Bikes-Project-main\ZigwheelsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB60144-CDAB-4483-879C-FDDC0D0AE17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D815B2CF-CD23-4D4F-B49D-1F4555DC0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="161">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="264">
+  <si>
+    <t>Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.95 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.06 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI Plus BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.45 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.40 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VXI AMT</t>
+  </si>
+  <si>
+    <t>Rs. 4.02 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.52 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VXI Optional</t>
+  </si>
+  <si>
+    <t>Rs. 4.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.65 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.20 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.49 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2.8 2WD MT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 27.00 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 7.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.93 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.04 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i DTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.90 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.1</t>
+  </si>
+  <si>
+    <t>Rs. 3.56 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.14 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City SV MT</t>
+  </si>
+  <si>
+    <t>Honda City V CVT</t>
   </si>
   <si>
     <t>Honda City i VTEC CVT VX</t>
@@ -34,7 +130,10 @@
     <t>Rs. 5.30 Lakh</t>
   </si>
   <si>
-    <t>2026-02-17 10:15:40</t>
+    <t>Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 4.24 Lakh</t>
   </si>
   <si>
     <t>Honda City 1.5 V MT Exclusive</t>
@@ -43,466 +142,676 @@
     <t>Rs. 3.45 Lakh</t>
   </si>
   <si>
+    <t>Rs. 4.49 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 13.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.55 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 8.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.00 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.53 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i-VTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 8.60 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 16.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.95 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 9.50 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.15 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.25 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz Option</t>
+  </si>
+  <si>
+    <t>Rs. 2.80 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI AMT</t>
+  </si>
+  <si>
+    <t>Rs. 5.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZDI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 3.72 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.25 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Ciaz 1.3 Alpha</t>
+  </si>
+  <si>
+    <t>Rs. 5.93 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 1.6 E Plus</t>
+  </si>
+  <si>
+    <t>Rs. 5.64 Lakh</t>
+  </si>
+  <si>
+    <t>BMW X1 sDrive18i M Sport</t>
+  </si>
+  <si>
+    <t>Rs. 42.00 Lakh</t>
+  </si>
+  <si>
+    <t>Renault KWID 1.0 RXT</t>
+  </si>
+  <si>
+    <t>Rs. 3.30 Lakh</t>
+  </si>
+  <si>
+    <t>Renault Triber RXZ</t>
+  </si>
+  <si>
+    <t>Honda Amaze SX i VTEC</t>
+  </si>
+  <si>
+    <t>Rs. 4.00 Lakh</t>
+  </si>
+  <si>
+    <t>Audi A6 35 TDI Technology</t>
+  </si>
+  <si>
+    <t>Rs. 19.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W8 FWD</t>
+  </si>
+  <si>
+    <t>Rs. 7.75 Lakh</t>
+  </si>
+  <si>
+    <t>Audi A4 2.0 TDI Multitronic</t>
+  </si>
+  <si>
+    <t>Rs. 6.00 Lakh</t>
+  </si>
+  <si>
+    <t>MG Gloster Savvy 6-Str</t>
+  </si>
+  <si>
+    <t>Rs. 30.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Corolla Altis 1.8 G CVT</t>
+  </si>
+  <si>
+    <t>Rs. 7.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VXI AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.99 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI Optional-O</t>
+  </si>
+  <si>
+    <t>Rs. 3.37 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.47 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 4.37 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.47 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift RS VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.60 Lakh</t>
+  </si>
+  <si>
     <t>Honda City VX MT</t>
   </si>
   <si>
     <t>Rs. 5.63 Lakh</t>
   </si>
   <si>
+    <t>Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 2.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 2.62 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.50 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V 2 Airbag</t>
+  </si>
+  <si>
     <t>Rs. 11.23 Lakh</t>
   </si>
   <si>
-    <t>Honda City V 2 Airbag</t>
-  </si>
-  <si>
-    <t>Rs. 8.75 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC CVT ZX</t>
+    <t>Rs. 12.09 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City V</t>
+  </si>
+  <si>
+    <t>Rs. 10.97 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.39 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 11.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.70 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VDI Deca</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Popular Models</t>
+  </si>
+  <si>
+    <t>Used Cars in Top Cities</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC S</t>
+  </si>
+  <si>
+    <t>Rs. 4.85 Lakh</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Details N/A</t>
+  </si>
+  <si>
+    <t>Rs. 5.66 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.93 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.93 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift LXI Option</t>
+  </si>
+  <si>
+    <t>Rs. 4.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.06 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.62 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.77 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.14 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.25 Lakh</t>
   </si>
   <si>
     <t>Rs. 6.93 Lakh</t>
   </si>
   <si>
-    <t>Honda City i-VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.95 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City V CVT</t>
-  </si>
-  <si>
-    <t>Rs. 7.45 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC ZX</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 6.80 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 12.09 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 11.39 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 10.50 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City SV MT</t>
-  </si>
-  <si>
-    <t>Rs. 6.85 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.90 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 4.25 Lakh</t>
+    <t>Hyundai Grand i10 Nios Magna</t>
+  </si>
+  <si>
+    <t>Rs. 5.83 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:06:31</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz C-Class C 220 CDI Style</t>
+  </si>
+  <si>
+    <t>Rs. 14.14 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Jazz 1.2 V i VTEC</t>
+  </si>
+  <si>
+    <t>Rs. 4.21 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Crysta 2.8 ZX AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 19.00 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i20 Sportz Plus Dual Tone BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 5.78 Lakh</t>
+  </si>
+  <si>
+    <t>Kia Sonet HTX Diesel iMT</t>
+  </si>
+  <si>
+    <t>Rs. 10.22 Lakh</t>
+  </si>
+  <si>
+    <t>56 Used Hyundai i20</t>
+  </si>
+  <si>
+    <t>Rs. 69.50 Lakh</t>
+  </si>
+  <si>
+    <t>53 Used Honda City</t>
+  </si>
+  <si>
+    <t>Rs. 4.15 Lakh</t>
+  </si>
+  <si>
+    <t>45 Used Honda Amaze</t>
+  </si>
+  <si>
+    <t>43 Used Maruti Swift</t>
+  </si>
+  <si>
+    <t>Rs. 3.95 Lakh</t>
+  </si>
+  <si>
+    <t>40 Used Hyundai Creta</t>
+  </si>
+  <si>
+    <t>39 Used Hyundai Grand i10</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>33 Used Maruti Celerio</t>
+  </si>
+  <si>
+    <t>33 Used Maruti Wagon R</t>
+  </si>
+  <si>
+    <t>33 Used Kia Seltos</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz GLE 300d 4Matic</t>
+  </si>
+  <si>
+    <t>Rs. 9.00 Lakh</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo 1.2 MPI Highline</t>
+  </si>
+  <si>
+    <t>Tata Tiago 1.2 Revotron XZA</t>
+  </si>
+  <si>
+    <t>Hyundai Xcent 1.2 Kappa S AT</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Volkswagen Ameo 1.5 TDI Highline</t>
+  </si>
+  <si>
+    <t>Rs. 7.21 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 AT W10 FWD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 2.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 16.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.75 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:07:30</t>
+  </si>
+  <si>
+    <t>Rs. 11.85 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 1.5 V AT</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 3.0 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 10.00 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:10:03</t>
+  </si>
+  <si>
+    <t>Rs. 11.21 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:11:35</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:22:03</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Asta AT</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Maruti Swift VVT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS III</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZXi Plus</t>
+  </si>
+  <si>
+    <t>Honda City i DTec SV</t>
+  </si>
+  <si>
+    <t>Rs. 6.75 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2.8 4WD AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 28.90 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Rs. 1.95 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 AT W10 1.99 mHawk</t>
+  </si>
+  <si>
+    <t>Rs. 10.84 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:00:18</t>
+  </si>
+  <si>
+    <t>Honda City VX Apex Edition CVT</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:02:33</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:07:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:09:00</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:11:58</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:13:22</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:14:48</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:33:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:32:41</t>
+  </si>
+  <si>
+    <t>Rs. 8.27 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.09 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.34 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 15:18:43</t>
+  </si>
+  <si>
+    <t>Rs. 5.85 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-19 17:53:57</t>
+  </si>
+  <si>
+    <t>Rs. 10.55 Lakh</t>
   </si>
   <si>
     <t>Rs. 9.30 Lakh</t>
   </si>
   <si>
-    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS III</t>
-  </si>
-  <si>
-    <t>Rs. 6.90 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Rs. 4.95 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 9.50 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Rs. 3.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.15 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2.5 G (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 13.95 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 W9</t>
-  </si>
-  <si>
-    <t>Rs. 10.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 3.25 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2.8 2WD MT BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 27.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VDI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 3.90 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift LXI Option</t>
-  </si>
-  <si>
-    <t>Rs. 4.10 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Sportz Option</t>
-  </si>
-  <si>
-    <t>Rs. 2.80 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI</t>
-  </si>
-  <si>
-    <t>Rs. 6.20 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 16.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VXI AMT</t>
-  </si>
-  <si>
-    <t>Rs. 4.80 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 W7</t>
-  </si>
-  <si>
-    <t>Rs. 14.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Asta AT</t>
-  </si>
-  <si>
-    <t>Rs. 2.95 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZDI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 4.90 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift AMT ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.77 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.14 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.52 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift LXI</t>
-  </si>
-  <si>
-    <t>Rs. 5.70 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna 1.1</t>
-  </si>
-  <si>
-    <t>Rs. 3.10 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.10 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.40 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 11.00 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Magna 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 2.62 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 AT W10 FWD</t>
-  </si>
-  <si>
-    <t>Rs. 9.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.21 Lakh</t>
-  </si>
-  <si>
-    <t>2026-02-18 09:54:20</t>
-  </si>
-  <si>
-    <t>Rs. 8.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.27 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 7.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI Plus BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 3.34 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i DTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.20 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.09 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 11.21 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City i VTEC S</t>
-  </si>
-  <si>
-    <t>Rs. 4.85 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.66 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift LXI Optional-O</t>
-  </si>
-  <si>
-    <t>Rs. 3.37 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City V</t>
-  </si>
-  <si>
-    <t>Rs. 10.97 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City VX Apex Edition CVT</t>
-  </si>
-  <si>
-    <t>Rs. 16.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Sportz 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 3.65 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.47 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.55 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift RS VDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VXI Optional</t>
-  </si>
-  <si>
-    <t>Rs. 5.59 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.92 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift VDI Deca</t>
-  </si>
-  <si>
-    <t>Rs. 5.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.15 Lakh</t>
-  </si>
-  <si>
-    <t>2026-02-19 16:27:07</t>
-  </si>
-  <si>
-    <t>Rs. 5.60 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZXI AMT</t>
+    <t>Rs. 4.62 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W11 FWD Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 13.65 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.25 Lakh</t>
   </si>
   <si>
     <t>Rs. 4.73 Lakh</t>
   </si>
   <si>
-    <t>Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.85 Lakh</t>
+    <t>Honda City i-VTEC VX</t>
   </si>
   <si>
     <t>Rs. 4.66 Lakh</t>
   </si>
   <si>
-    <t>Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 5.25 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Sportz AT</t>
-  </si>
-  <si>
-    <t>Maruti Swift VXI AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 5.95 Lakh</t>
-  </si>
-  <si>
-    <t>2026-02-19 16:46:06</t>
-  </si>
-  <si>
-    <t>Rs. 9.25 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City ZX CVT</t>
-  </si>
-  <si>
-    <t>Rs. 10.55 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 W11 FWD Diesel</t>
-  </si>
-  <si>
-    <t>Rs. 13.65 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.62 Lakh</t>
-  </si>
-  <si>
-    <t>2026-02-19 16:50:50</t>
-  </si>
-  <si>
-    <t>2026-02-19 16:58:31</t>
-  </si>
-  <si>
-    <t>Honda City i-VTEC VX</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2.5 V Diesel 7-seater</t>
-  </si>
-  <si>
-    <t>Rs. 7.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 3.0 Diesel</t>
-  </si>
-  <si>
-    <t>Rs. 10.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.70 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.99 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Alcazar Prestige</t>
-  </si>
-  <si>
-    <t>Hyundai Tucson 2.0 Dual VTVT 2WD AT GLS</t>
-  </si>
-  <si>
-    <t>Tata Tiago 1.2 Revotron XTA</t>
-  </si>
-  <si>
-    <t>BMW 5 Series 530d M Sport</t>
-  </si>
-  <si>
-    <t>Skoda Rapid 1.5 TDI Elegance</t>
-  </si>
-  <si>
-    <t>Maruti 800 AC BSIII</t>
-  </si>
-  <si>
-    <t>2026-02-19 17:59:54</t>
-  </si>
-  <si>
-    <t>2026-02-19 18:10:21</t>
-  </si>
-  <si>
-    <t>2026-02-19 18:13:31</t>
-  </si>
-  <si>
-    <t>Rs. 9.97 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.00 Lakh</t>
-  </si>
-  <si>
-    <t>2026-02-19 18:16:22</t>
-  </si>
-  <si>
-    <t>2026-02-19 18:19:56</t>
-  </si>
-  <si>
-    <t>2026-02-19 18:21:53</t>
+    <t>2026-02-20 09:48:29</t>
+  </si>
+  <si>
+    <t>Honda City i VTEC VX Option</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.25 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-20 09:51:04</t>
+  </si>
+  <si>
+    <t>2026-02-20 10:01:29</t>
+  </si>
+  <si>
+    <t>2026-02-20 10:17:49</t>
   </si>
 </sst>
 </file>
@@ -510,18 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,9 +848,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,685 +1184,804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A2:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C85"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="49.453125"/>
-    <col min="2" max="2" customWidth="true" width="28.90625"/>
-    <col min="3" max="3" customWidth="true" width="35.0"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>155</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>Rs. 8.25 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-20 11:38:58</t>
+  </si>
+  <si>
+    <t>Rs. 4.41 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-20 11:41:37</t>
+  </si>
+  <si>
+    <t>Rs. 8.60 Lakh</t>
   </si>
 </sst>
 </file>
@@ -931,255 +943,255 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1190,260 +1202,260 @@
         <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
@@ -1454,7 +1466,7 @@
         <v>63</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">

--- a/UsedCarsOutput.xlsx
+++ b/UsedCarsOutput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -539,6 +539,24 @@
   </si>
   <si>
     <t>Rs. 8.60 Lakh</t>
+  </si>
+  <si>
+    <t>2026-02-20 11:51:54</t>
+  </si>
+  <si>
+    <t>2026-02-20 11:53:24</t>
+  </si>
+  <si>
+    <t>2026-02-20 11:54:34</t>
+  </si>
+  <si>
+    <t>2026-02-20 12:00:04</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift VVT VXI</t>
   </si>
 </sst>
 </file>
@@ -943,530 +961,530 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>51</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
